--- a/assets/pod_agent_report_template.xlsx
+++ b/assets/pod_agent_report_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natashasoldin/Documents/Work/Sunrise Frequency Reporting/Sunrise-Frequency-Reporting/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67563E1-F7DA-E143-8FA0-7BDD86C93AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701D46E9-4D28-0D4B-9DA4-E0D655874518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="760" windowWidth="27640" windowHeight="18880" xr2:uid="{61660ABD-414E-DC4A-816F-BEBC35F6E77A}"/>
   </bookViews>
